--- a/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
+++ b/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
@@ -28,10 +28,6 @@
     <t>O propósito do processo Gerência de Requisitos é gerenciar os requisitos do produto e dos componentes do produto do projeto e identificar inconsistências entre os requisitos, os planos do projeto e os produtos de trabalho do projeto.</t>
   </si>
   <si>
-    <t>GRE 1. O entendimento dos requisitos é obtido junto aos fornecedores de requisitos.
-As evidências apresentadas para este resultado permitem assegurar: (ii) que as pessoas autorizadas a definir e a alterar requisitos foram identificadas? (ii) que existe um documento de requisitos que represente seu entendimento? (iii) que os requisitos foram aceitos pelo cliente ou um representante?</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -210,9 +206,6 @@
     <t>Processo de Gerencia de Requisitos - Sessao 5(i)</t>
   </si>
   <si>
-    <t>Especificacao de Requisitos  (ii)</t>
-  </si>
-  <si>
     <t>Relatorio de Requisitos e Formalidades - Sessao 3(i)</t>
   </si>
   <si>
@@ -241,6 +234,13 @@
   </si>
   <si>
     <t>Relatorio de Requisito e Formalidades</t>
+  </si>
+  <si>
+    <t>Especificacao de Requisitos Final  (ii)</t>
+  </si>
+  <si>
+    <t>GRE 1. O entendimento dos requisitos é obtido junto aos fornecedores de requisitos.
+As evidências apresentadas para este resultado permitem assegurar: (i) que as pessoas autorizadas a definir e a alterar requisitos foram identificadas? (ii) que existe um documento de requisitos que represente seu entendimento? (iii) que os requisitos foram aceitos pelo cliente ou um representante?</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,26 +375,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -430,7 +424,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,13 +454,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,16 +466,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -501,10 +481,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -512,22 +492,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,14 +520,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,9 +531,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -635,6 +632,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
   </colors>
 </styleSheet>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -940,7 +940,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -1006,9 +1006,9 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="43"/>
+        <v>62</v>
+      </c>
+      <c r="B5" s="42"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1021,10 +1021,10 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="43"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1037,10 +1037,10 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="15"/>
+      <c r="A7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1053,10 +1053,10 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="15"/>
+      <c r="A8" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="43"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1069,8 +1069,8 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1083,8 +1083,8 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1097,9 +1097,9 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>6</v>
+      <c r="A11" s="15"/>
+      <c r="B11" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -1114,9 +1114,9 @@
     </row>
     <row r="12" spans="1:12" ht="82.5" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="45"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="46"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1129,10 +1129,10 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="13"/>
+      <c r="A13" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="47"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1145,10 +1145,10 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="12" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="19"/>
+      <c r="A14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="48"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1161,10 +1161,10 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="12" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="44"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1177,8 +1177,8 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="12" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1191,8 +1191,8 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="12" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1205,8 +1205,8 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1">
-      <c r="B18" s="20" t="s">
-        <v>6</v>
+      <c r="B18" s="49" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="19" spans="1:12" ht="36" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="4"/>
@@ -1236,10 +1236,10 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="13"/>
+      <c r="A20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="47"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1252,10 +1252,10 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1">
-      <c r="A21" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="15"/>
+      <c r="A21" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="43"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1268,8 +1268,8 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1282,8 +1282,8 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1296,8 +1296,8 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1310,9 +1310,9 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
-        <v>6</v>
+      <c r="A25" s="15"/>
+      <c r="B25" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -1327,9 +1327,9 @@
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="B26" s="50"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1342,10 +1342,10 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1">
-      <c r="A27" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="13"/>
+      <c r="A27" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="47"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1358,10 +1358,10 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
-      <c r="A28" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="22"/>
+      <c r="A28" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="51"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1374,10 +1374,10 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="16"/>
+      <c r="A29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="44"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1390,10 +1390,10 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
-      <c r="A30" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="16"/>
+      <c r="A30" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="44"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1406,8 +1406,8 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1420,9 +1420,9 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18" t="s">
-        <v>6</v>
+      <c r="A32" s="15"/>
+      <c r="B32" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -1437,9 +1437,9 @@
     </row>
     <row r="33" spans="1:12" ht="48" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="50"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1452,10 +1452,10 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1">
-      <c r="A34" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="13"/>
+      <c r="A34" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="47"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1468,10 +1468,10 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" ht="12" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="15"/>
+      <c r="A35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="43"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1484,10 +1484,10 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1">
-      <c r="A36" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="15"/>
+      <c r="A36" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="43"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1500,8 +1500,8 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" ht="12" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1514,8 +1514,8 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" ht="12" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1528,9 +1528,9 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="12" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="18" t="s">
-        <v>6</v>
+      <c r="A39" s="13"/>
+      <c r="B39" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -1544,8 +1544,8 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1558,10 +1558,10 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="26"/>
+      <c r="A41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="20"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1577,7 +1577,7 @@
       <c r="A42" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1590,10 +1590,10 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" ht="12" customHeight="1">
-      <c r="A43" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="29"/>
+      <c r="A43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="23"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1606,10 +1606,10 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" ht="51" customHeight="1">
-      <c r="A44" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="29"/>
+      <c r="A44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="23"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1622,11 +1622,11 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="12" customHeight="1">
-      <c r="A45" s="30" t="s">
-        <v>16</v>
+      <c r="A45" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -1640,11 +1640,11 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="12" customHeight="1">
-      <c r="A46" s="31" t="s">
-        <v>17</v>
+      <c r="A46" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -1658,12 +1658,12 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="12" customHeight="1">
-      <c r="A47" s="32" t="str">
+      <c r="A47" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="48" spans="1:12" ht="12" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -1695,11 +1695,11 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1">
-      <c r="A49" s="31" t="s">
-        <v>17</v>
+      <c r="A49" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="50" spans="1:12" ht="12" customHeight="1">
       <c r="A50"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1727,8 +1727,8 @@
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="12" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1741,9 +1741,9 @@
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="12" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="18" t="s">
-        <v>6</v>
+      <c r="A52" s="13"/>
+      <c r="B52" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -1757,10 +1757,10 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="34"/>
+      <c r="A53" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="28"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1773,10 +1773,10 @@
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="60" customHeight="1">
-      <c r="A54" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="36"/>
+      <c r="A54" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="30"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1789,12 +1789,12 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
-      <c r="A55" s="32" t="str">
+      <c r="A55" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","Processo de Gerencia de Projetos")</f>
         <v>Processo de Gerencia de Projetos</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -1808,10 +1808,10 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
-      <c r="A56" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="16"/>
+      <c r="A56" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="14"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1824,8 +1824,8 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1838,8 +1838,8 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1852,8 +1852,8 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="12" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1866,9 +1866,9 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" ht="12" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="18" t="s">
-        <v>6</v>
+      <c r="A60" s="13"/>
+      <c r="B60" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -1882,10 +1882,10 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A61" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="37"/>
+      <c r="A61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="31"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="62" spans="1:12" ht="12" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
@@ -1917,10 +1917,10 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="12" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="16"/>
+      <c r="A63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="14"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1933,8 +1933,8 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" ht="12" customHeight="1">
-      <c r="A64" s="14"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1947,8 +1947,8 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="12" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -1961,8 +1961,8 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="12" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1975,9 +1975,9 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" ht="12" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="18" t="s">
-        <v>6</v>
+      <c r="A67" s="13"/>
+      <c r="B67" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -1991,10 +1991,10 @@
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A68" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="38"/>
+      <c r="A68" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="32"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2007,11 +2007,11 @@
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" ht="12" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>5</v>
+      <c r="A69" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="70" spans="1:12" ht="12" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
@@ -2044,11 +2044,11 @@
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" ht="12" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>5</v>
+      <c r="A71" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="72" spans="1:12" ht="12" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
@@ -2081,11 +2081,11 @@
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" ht="12" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>5</v>
+      <c r="A73" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -2099,8 +2099,8 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="12" customHeight="1">
-      <c r="A74" s="14"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2113,8 +2113,8 @@
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="12" customHeight="1">
-      <c r="A75" s="14"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2127,9 +2127,9 @@
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="12" customHeight="1">
-      <c r="A76" s="14"/>
-      <c r="B76" s="18" t="s">
-        <v>6</v>
+      <c r="A76" s="13"/>
+      <c r="B76" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -2143,10 +2143,10 @@
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A77" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="38"/>
+      <c r="A77" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="32"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2159,8 +2159,8 @@
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" ht="12" customHeight="1">
-      <c r="A78" s="14"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2173,8 +2173,8 @@
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" ht="12" customHeight="1">
-      <c r="A79" s="40" t="s">
-        <v>25</v>
+      <c r="A79" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="B79" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
@@ -2192,11 +2192,11 @@
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="12" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>5</v>
+      <c r="A80" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="81" spans="1:12" ht="12" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
@@ -2229,10 +2229,10 @@
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" ht="12" customHeight="1">
-      <c r="A82" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="16"/>
+      <c r="A82" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="14"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -2245,11 +2245,11 @@
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" ht="12" customHeight="1">
-      <c r="A83" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>6</v>
+      <c r="A83" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -2263,10 +2263,10 @@
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A84" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="38"/>
+      <c r="A84" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="32"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="85" spans="1:12" ht="12" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
@@ -2298,11 +2298,11 @@
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="1:12" ht="12" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="39" t="s">
-        <v>5</v>
+      <c r="A86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -2316,8 +2316,8 @@
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12" ht="12" customHeight="1">
-      <c r="A87" s="14"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -2330,8 +2330,8 @@
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12" ht="12" customHeight="1">
-      <c r="A88" s="14"/>
-      <c r="B88" s="16"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -2344,8 +2344,8 @@
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" ht="12" customHeight="1">
-      <c r="A89" s="14"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -2358,9 +2358,9 @@
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12" ht="12" customHeight="1">
-      <c r="A90" s="14"/>
-      <c r="B90" s="18" t="s">
-        <v>6</v>
+      <c r="A90" s="13"/>
+      <c r="B90" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -2374,10 +2374,10 @@
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A91" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="38"/>
+      <c r="A91" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="32"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="92" spans="1:12" ht="12" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B92" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
@@ -2409,8 +2409,8 @@
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" ht="12" customHeight="1">
-      <c r="A93" s="14"/>
-      <c r="B93" s="16"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -2423,8 +2423,8 @@
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="1:12" ht="12" customHeight="1">
-      <c r="A94" s="14"/>
-      <c r="B94" s="16"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -2437,8 +2437,8 @@
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" ht="12" customHeight="1">
-      <c r="A95" s="14"/>
-      <c r="B95" s="16"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -2451,8 +2451,8 @@
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:12" ht="12" customHeight="1">
-      <c r="A96" s="14"/>
-      <c r="B96" s="16"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -2465,9 +2465,9 @@
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12" ht="12" customHeight="1">
-      <c r="A97" s="14"/>
-      <c r="B97" s="18" t="s">
-        <v>6</v>
+      <c r="A97" s="13"/>
+      <c r="B97" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
@@ -2481,10 +2481,10 @@
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A98" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="38"/>
+      <c r="A98" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="32"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="99" spans="1:12" ht="12" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
@@ -2516,8 +2516,8 @@
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" ht="12" customHeight="1">
-      <c r="A100" s="14"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2530,8 +2530,8 @@
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" ht="12" customHeight="1">
-      <c r="A101" s="14"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -2544,8 +2544,8 @@
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="1:12" ht="12" customHeight="1">
-      <c r="A102" s="14"/>
-      <c r="B102" s="16"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -2558,8 +2558,8 @@
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12" ht="12" customHeight="1">
-      <c r="A103" s="14"/>
-      <c r="B103" s="16"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -2572,9 +2572,9 @@
       <c r="L103" s="5"/>
     </row>
     <row r="104" spans="1:12" ht="12" customHeight="1">
-      <c r="A104" s="14"/>
-      <c r="B104" s="18" t="s">
-        <v>6</v>
+      <c r="A104" s="13"/>
+      <c r="B104" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
@@ -2588,10 +2588,10 @@
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A105" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B105" s="38"/>
+      <c r="A105" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="32"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="106" spans="1:12" ht="12" customHeight="1">
       <c r="A106" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
@@ -2623,11 +2623,11 @@
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="1:12" ht="12" customHeight="1">
-      <c r="A107" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B107" s="39" t="s">
-        <v>5</v>
+      <c r="A107" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
@@ -2641,8 +2641,8 @@
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12" ht="12" customHeight="1">
-      <c r="A108" s="14"/>
-      <c r="B108" s="16"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2655,8 +2655,8 @@
       <c r="L108" s="5"/>
     </row>
     <row r="109" spans="1:12" ht="12" customHeight="1">
-      <c r="A109" s="14"/>
-      <c r="B109" s="16"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2669,8 +2669,8 @@
       <c r="L109" s="5"/>
     </row>
     <row r="110" spans="1:12" ht="12" customHeight="1">
-      <c r="A110" s="14"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -2683,9 +2683,9 @@
       <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:12" ht="12" customHeight="1">
-      <c r="A111" s="14"/>
-      <c r="B111" s="18" t="s">
-        <v>6</v>
+      <c r="A111" s="13"/>
+      <c r="B111" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
@@ -2699,10 +2699,10 @@
       <c r="L111" s="5"/>
     </row>
     <row r="112" spans="1:12" ht="69.75" customHeight="1">
-      <c r="A112" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B112" s="38"/>
+      <c r="A112" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="32"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="113" spans="1:12" ht="12" customHeight="1">
       <c r="A113" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B113" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
@@ -2734,11 +2734,11 @@
       <c r="L113" s="5"/>
     </row>
     <row r="114" spans="1:12" ht="12" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="39" t="s">
-        <v>5</v>
+      <c r="A114" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="115" spans="1:12" ht="12" customHeight="1">
       <c r="A115" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B115" s="12" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
@@ -2771,10 +2771,10 @@
       <c r="L115" s="5"/>
     </row>
     <row r="116" spans="1:12" ht="12" customHeight="1">
-      <c r="A116" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="16"/>
+      <c r="A116" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="14"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -2787,10 +2787,10 @@
       <c r="L116" s="5"/>
     </row>
     <row r="117" spans="1:12" ht="12" customHeight="1">
-      <c r="A117" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B117" s="16"/>
+      <c r="A117" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="14"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
@@ -2803,9 +2803,9 @@
       <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:12" ht="12" customHeight="1">
-      <c r="A118" s="14"/>
-      <c r="B118" s="18" t="s">
-        <v>6</v>
+      <c r="A118" s="13"/>
+      <c r="B118" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -2819,10 +2819,10 @@
       <c r="L118" s="5"/>
     </row>
     <row r="119" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A119" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" s="38"/>
+      <c r="A119" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="32"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -2849,11 +2849,11 @@
       <c r="L120" s="5"/>
     </row>
     <row r="121" spans="1:12" ht="12" customHeight="1">
-      <c r="A121" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" s="39" t="s">
-        <v>5</v>
+      <c r="A121" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
@@ -2867,8 +2867,8 @@
       <c r="L121" s="5"/>
     </row>
     <row r="122" spans="1:12" ht="12" customHeight="1">
-      <c r="A122" s="14" t="s">
-        <v>8</v>
+      <c r="A122" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="B122" s="12" t="str">
         <f>HYPERLINK("http://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
@@ -2886,8 +2886,8 @@
       <c r="L122" s="5"/>
     </row>
     <row r="123" spans="1:12" ht="12" customHeight="1">
-      <c r="A123" s="14"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -2900,8 +2900,8 @@
       <c r="L123" s="5"/>
     </row>
     <row r="124" spans="1:12" ht="12" customHeight="1">
-      <c r="A124" s="14"/>
-      <c r="B124" s="16"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -2914,9 +2914,9 @@
       <c r="L124" s="5"/>
     </row>
     <row r="125" spans="1:12" ht="12" customHeight="1">
-      <c r="A125" s="14"/>
-      <c r="B125" s="18" t="s">
-        <v>6</v>
+      <c r="A125" s="13"/>
+      <c r="B125" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
@@ -2930,10 +2930,10 @@
       <c r="L125" s="5"/>
     </row>
     <row r="126" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A126" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="38"/>
+      <c r="A126" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" s="32"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="127" spans="1:12" ht="12" customHeight="1">
       <c r="A127" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B127" s="12" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","X")</f>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="128" spans="1:12" ht="12" customHeight="1">
       <c r="A128" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="39" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
@@ -2983,11 +2983,11 @@
       <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12" ht="12" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>5</v>
+      <c r="A129" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
@@ -3001,8 +3001,8 @@
       <c r="L129" s="5"/>
     </row>
     <row r="130" spans="1:12" ht="12" customHeight="1">
-      <c r="A130" s="14"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3015,8 +3015,8 @@
       <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" ht="12" customHeight="1">
-      <c r="A131" s="14"/>
-      <c r="B131" s="16"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3029,9 +3029,9 @@
       <c r="L131" s="5"/>
     </row>
     <row r="132" spans="1:12" ht="12" customHeight="1">
-      <c r="A132" s="14"/>
-      <c r="B132" s="18" t="s">
-        <v>6</v>
+      <c r="A132" s="13"/>
+      <c r="B132" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>

--- a/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
+++ b/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
@@ -212,9 +212,6 @@
     <t>GRE-CAR-CHECKLIST_ACOMPANHAMENTO_DE_REQUISITOS (iii)</t>
   </si>
   <si>
-    <t>Matriz de Rastreabilidade</t>
-  </si>
-  <si>
     <t>Matriz de Rastreabilidade de Software</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
   </si>
   <si>
     <t>Processo de Gerencia de Requisitos</t>
-  </si>
-  <si>
-    <t>Mudanças de Requisito</t>
   </si>
   <si>
     <t>Relatorio de Requisito e Formalidades</t>
@@ -241,6 +235,12 @@
   <si>
     <t>GRE 1. O entendimento dos requisitos é obtido junto aos fornecedores de requisitos.
 As evidências apresentadas para este resultado permitem assegurar: (i) que as pessoas autorizadas a definir e a alterar requisitos foram identificadas? (ii) que existe um documento de requisitos que represente seu entendimento? (iii) que os requisitos foram aceitos pelo cliente ou um representante?</t>
+  </si>
+  <si>
+    <t>Matriz de Rastreabilidade de Requisitos</t>
+  </si>
+  <si>
+    <t>Mudanças de Requisito (i)</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="4"/>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="4"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="4"/>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="4"/>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1">
       <c r="A27" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="4"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="4"/>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="4"/>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="4"/>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1">
       <c r="A34" s="26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="4"/>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="35" spans="1:12" ht="12" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="4"/>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1">
       <c r="A36" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="4"/>

--- a/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
+++ b/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>PREENCHIDO PELA EMPRESA</t>
   </si>
@@ -197,21 +197,6 @@
     <t>Gerência de Requisitos GPR</t>
   </si>
   <si>
-    <t>Processo de Gerencia de Requisitos (ii)</t>
-  </si>
-  <si>
-    <t>Relatorio de Requisitos e Formalidades - Sessao 3(III)</t>
-  </si>
-  <si>
-    <t>Processo de Gerencia de Requisitos - Sessao 5(i)</t>
-  </si>
-  <si>
-    <t>Relatorio de Requisitos e Formalidades - Sessao 3(i)</t>
-  </si>
-  <si>
-    <t>GRE-CAR-CHECKLIST_ACOMPANHAMENTO_DE_REQUISITOS (iii)</t>
-  </si>
-  <si>
     <t>Matriz de Rastreabilidade de Software</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
   </si>
   <si>
     <t>Relatorio de Requisito e Formalidades</t>
-  </si>
-  <si>
-    <t>Especificacao de Requisitos Final  (ii)</t>
   </si>
   <si>
     <t>GRE 1. O entendimento dos requisitos é obtido junto aos fornecedores de requisitos.
@@ -241,6 +223,24 @@
   </si>
   <si>
     <t>Mudanças de Requisito (i)</t>
+  </si>
+  <si>
+    <t>Aprovacao dos Requisitos</t>
+  </si>
+  <si>
+    <t>Relatorio de Requisitos e Formalidades - Sessao 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especificacao de Requisitos Final  </t>
+  </si>
+  <si>
+    <t>Processo de Gerencia de Requisitos - Sessao 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo de Gerencia de Requisitos </t>
+  </si>
+  <si>
+    <t>Checklist de Acompanhamento de Requisitos</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="4"/>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="4"/>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="4"/>
@@ -1069,7 +1069,9 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="B9" s="43"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1130,7 +1132,7 @@
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="4"/>
@@ -1146,7 +1148,7 @@
     </row>
     <row r="14" spans="1:12" ht="12" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="4"/>
@@ -1162,7 +1164,7 @@
     </row>
     <row r="15" spans="1:12" ht="12" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="4"/>
@@ -1177,7 +1179,9 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="12" customHeight="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="B16" s="44"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -1237,7 +1241,7 @@
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="4"/>
@@ -1253,7 +1257,7 @@
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="4"/>
@@ -1343,7 +1347,7 @@
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1">
       <c r="A27" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="4"/>
@@ -1359,7 +1363,7 @@
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="4"/>
@@ -1375,7 +1379,7 @@
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="4"/>
@@ -1391,7 +1395,7 @@
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="4"/>
@@ -1453,7 +1457,7 @@
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1">
       <c r="A34" s="26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="4"/>
@@ -1469,7 +1473,7 @@
     </row>
     <row r="35" spans="1:12" ht="12" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="4"/>
@@ -1485,7 +1489,7 @@
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1">
       <c r="A36" s="38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="4"/>

--- a/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
+++ b/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>PREENCHIDO PELA EMPRESA</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>O propósito do processo Gerência de Requisitos é gerenciar os requisitos do produto e dos componentes do produto do projeto e identificar inconsistências entre os requisitos, os planos do projeto e os produtos de trabalho do projeto.</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>(T,L,P,N,NA)</t>
@@ -38,9 +35,6 @@
 As evidências apresentadas para este resultado permitem assegurar: (i) que foi obtido e registrado um comprometimento formal da equipe técnica com os requisitos aprovados? (ii) que foram definidos critérios para análise de requisitos e que estes foram usados como base para a avaliação e a aceitação dos requisitos do projeto (por parte da equipe técnica)? (iii) que um novo comprometimento da equipe técnica com os requisitos foi obtido e registrado quando houve mudanças nos requisitos?</t>
   </si>
   <si>
-    <t>GPR-RMC-RELATORIO_MONITORAMENTO_COMPROMETIMENTO</t>
-  </si>
-  <si>
     <t>GRE-PGR-PROCESSO_DE_GERENCIA_DE_REQUISITOS</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
 As evidências apresentadas para este resultado permitem assegurar: (i) que foi definida uma política organizacional estabelecendo as expectativas da organização para a execução do processo e que esta política é conhecida e de fácil acesso aos interessados? (ii) que a política organizacional foi atualizada, quando necessário? (iii) que a política organizacional tem respaldo da alta administração (por exemplo, por meio de aprovação da alta administração)?</t>
   </si>
   <si>
-    <t>Processo de Gerencia de Projetos - Sessao 4 - Políticas</t>
-  </si>
-  <si>
     <t>RAP 3. A execução do processo é planejada.
 As evidências apresentadas para este resultado permitem assegurar que existe um plano para a execução do processo?</t>
   </si>
@@ -112,12 +103,6 @@
   </si>
   <si>
     <t>GCO-PGC-PLANO_DE_GERENCIA_DE_CONFIGURACAO</t>
-  </si>
-  <si>
-    <t>Processo de Gerência de Requisitos - Sessao 7 - Atividade -  Manter a Rastreabilidade</t>
-  </si>
-  <si>
-    <t>Processo de Gerência de Requisitos - Sessao 7 - Atividade -  Especificar Objetivos e Requisitos</t>
   </si>
   <si>
     <t>RAP 5. As informações e os recursos necessários para a execução do processo são identificados e disponibilizados.
@@ -160,27 +145,7 @@
 As evidências apresentadas para este resultado permitem assegurar que: (i) foi planejada a comunicação entre as partes interessadas no processo?; (ii) este planejamento foi monitorado?; (iii) existe evidência de que a comunicação ocorre de forma a garantir o envolvimento das partes interessadas?</t>
   </si>
   <si>
-    <t>GRE-PGR-PROCESSO_DE_GERENCIA_DE_REQUISITOS Atividades de Elicitação e Revisão</t>
-  </si>
-  <si>
-    <r>
-      <t>GCO-PGC-PLANO_DE_GERENCIA_DE_CONFIGURACAO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Item 04</t>
-    </r>
-  </si>
-  <si>
     <t>GRE-MDE-MUDANÇA_DE_REQUISITOS</t>
-  </si>
-  <si>
-    <t>Comunicaçoes via repositorio GIT</t>
   </si>
   <si>
     <t>RAP 9. (Até o nível F). Os resultados do processo são revistos com a gerência de alto nível para fornecer visibilidade sobre a sua situação na organização.                                                                           
@@ -241,13 +206,43 @@
   </si>
   <si>
     <t>Checklist de Acompanhamento de Requisitos</t>
+  </si>
+  <si>
+    <t>Checklist de Qualidade</t>
+  </si>
+  <si>
+    <t>Processo de Gerência de Requisitos</t>
+  </si>
+  <si>
+    <t>Recursos de Projeto</t>
+  </si>
+  <si>
+    <t>Aprovcao dos Requisitos</t>
+  </si>
+  <si>
+    <t>Curriculum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRE-PGR-PROCESSO_DE_GERENCIA_DE_REQUISITOS </t>
+  </si>
+  <si>
+    <t>Relatório de Acompanhamento do Projeto</t>
+  </si>
+  <si>
+    <t>Cronograma e Atividades detalhadas</t>
+  </si>
+  <si>
+    <t>Atas De Reuniao</t>
+  </si>
+  <si>
+    <t>Plano de Comunicação (ii) (iii)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,6 +348,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -416,15 +426,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,9 +532,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -557,11 +569,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 3" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -924,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK146"/>
+  <dimension ref="A1:AMK148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -940,7 +974,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -1006,9 +1040,9 @@
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="B5" s="41"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1022,9 +1056,9 @@
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="43"/>
+        <v>52</v>
+      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1038,9 +1072,9 @@
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="43"/>
+        <v>51</v>
+      </c>
+      <c r="B7" s="42"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1053,10 +1087,10 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="43"/>
+      <c r="A8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="42"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1070,9 +1104,9 @@
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="43"/>
+        <v>49</v>
+      </c>
+      <c r="B9" s="42"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1086,7 +1120,7 @@
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1100,8 +1134,8 @@
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="45" t="s">
-        <v>5</v>
+      <c r="B11" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -1116,9 +1150,9 @@
     </row>
     <row r="12" spans="1:12" ht="82.5" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="45"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1131,10 +1165,10 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1">
-      <c r="A13" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="47"/>
+      <c r="A13" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="46"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1148,9 +1182,9 @@
     </row>
     <row r="14" spans="1:12" ht="12" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="48"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="47"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1164,9 +1198,9 @@
     </row>
     <row r="15" spans="1:12" ht="12" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="B15" s="43"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1180,9 +1214,9 @@
     </row>
     <row r="16" spans="1:12" ht="12" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="44"/>
+        <v>49</v>
+      </c>
+      <c r="B16" s="43"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1196,7 +1230,7 @@
     </row>
     <row r="17" spans="1:12" ht="12" customHeight="1">
       <c r="A17" s="13"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1209,8 +1243,8 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1">
-      <c r="B18" s="49" t="s">
-        <v>5</v>
+      <c r="B18" s="48" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -1225,9 +1259,9 @@
     </row>
     <row r="19" spans="1:12" ht="36" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="50"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="49"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1241,9 +1275,9 @@
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="47"/>
+        <v>47</v>
+      </c>
+      <c r="B20" s="46"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1256,10 +1290,10 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="43"/>
+      <c r="A21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="42"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1273,7 +1307,7 @@
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1287,7 +1321,7 @@
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1301,7 +1335,7 @@
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1315,8 +1349,8 @@
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="45" t="s">
-        <v>5</v>
+      <c r="B25" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -1331,9 +1365,9 @@
     </row>
     <row r="26" spans="1:12" ht="60" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="50"/>
+        <v>8</v>
+      </c>
+      <c r="B26" s="49"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1346,10 +1380,10 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1">
-      <c r="A27" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="47"/>
+      <c r="A27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="46"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1362,10 +1396,10 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
-      <c r="A28" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="51"/>
+      <c r="A28" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="50"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1379,9 +1413,9 @@
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="44"/>
+        <v>43</v>
+      </c>
+      <c r="B29" s="43"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1394,10 +1428,10 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
-      <c r="A30" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="44"/>
+      <c r="A30" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="43"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1411,7 +1445,7 @@
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1">
       <c r="A31" s="13"/>
-      <c r="B31" s="44"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1425,8 +1459,8 @@
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="45" t="s">
-        <v>5</v>
+      <c r="B32" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -1441,9 +1475,9 @@
     </row>
     <row r="33" spans="1:12" ht="48" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="50"/>
+        <v>9</v>
+      </c>
+      <c r="B33" s="49"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1457,9 +1491,9 @@
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1">
       <c r="A34" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="47"/>
+        <v>48</v>
+      </c>
+      <c r="B34" s="46"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1473,9 +1507,9 @@
     </row>
     <row r="35" spans="1:12" ht="12" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="B35" s="42"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1488,10 +1522,10 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1">
-      <c r="A36" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="43"/>
+      <c r="A36" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="42"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1505,7 +1539,7 @@
     </row>
     <row r="37" spans="1:12" ht="12" customHeight="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="44"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1519,7 +1553,7 @@
     </row>
     <row r="38" spans="1:12" ht="12" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1534,7 +1568,7 @@
     <row r="39" spans="1:12" ht="12" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -1563,7 +1597,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75">
       <c r="A41" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="4"/>
@@ -1595,7 +1629,7 @@
     </row>
     <row r="43" spans="1:12" ht="12" customHeight="1">
       <c r="A43" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="4"/>
@@ -1611,7 +1645,7 @@
     </row>
     <row r="44" spans="1:12" ht="51" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="4"/>
@@ -1627,11 +1661,9 @@
     </row>
     <row r="45" spans="1:12" ht="12" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B45" s="12"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1645,11 +1677,9 @@
     </row>
     <row r="46" spans="1:12" ht="12" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B46" s="12"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1666,9 +1696,7 @@
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="B47" s="12"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1682,11 +1710,9 @@
     </row>
     <row r="48" spans="1:12" ht="12" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B48" s="26"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1700,11 +1726,9 @@
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1">
       <c r="A49" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B49" s="12"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1717,7 +1741,9 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="12" customHeight="1">
-      <c r="A50"/>
+      <c r="A50" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="B50" s="14"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
@@ -1747,7 +1773,7 @@
     <row r="52" spans="1:12" ht="12" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
@@ -1762,7 +1788,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" s="28"/>
       <c r="C53" s="4"/>
@@ -1778,7 +1804,7 @@
     </row>
     <row r="54" spans="1:12" ht="60" customHeight="1">
       <c r="A54" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="4"/>
@@ -1793,13 +1819,10 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
-      <c r="A55" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","Processo de Gerencia de Projetos")</f>
-        <v>Processo de Gerencia de Projetos</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="A55" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="12"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1812,8 +1835,8 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
-      <c r="A56" s="25" t="s">
-        <v>20</v>
+      <c r="A56" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="4"/>
@@ -1828,7 +1851,9 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
-      <c r="A57" s="13"/>
+      <c r="A57" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="B57" s="14"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
@@ -1872,7 +1897,7 @@
     <row r="60" spans="1:12" ht="12" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -1887,7 +1912,7 @@
     </row>
     <row r="61" spans="1:12" ht="24.75" customHeight="1">
       <c r="A61" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="4"/>
@@ -1903,12 +1928,9 @@
     </row>
     <row r="62" spans="1:12" ht="12" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
-        <v>X</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B62" s="12"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1922,7 +1944,7 @@
     </row>
     <row r="63" spans="1:12" ht="12" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="4"/>
@@ -1981,7 +2003,7 @@
     <row r="67" spans="1:12" ht="12" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -1996,7 +2018,7 @@
     </row>
     <row r="68" spans="1:12" ht="36.75" customHeight="1">
       <c r="A68" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B68" s="32"/>
       <c r="C68" s="4"/>
@@ -2012,11 +2034,9 @@
     </row>
     <row r="69" spans="1:12" ht="12" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B69" s="33"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2030,12 +2050,9 @@
     </row>
     <row r="70" spans="1:12" ht="12" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
-        <v>X</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B70" s="12"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2049,11 +2066,9 @@
     </row>
     <row r="71" spans="1:12" ht="12" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B71" s="33"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2067,12 +2082,9 @@
     </row>
     <row r="72" spans="1:12" ht="12" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
-        <v>X</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B72" s="12"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2086,11 +2098,9 @@
     </row>
     <row r="73" spans="1:12" ht="12" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B73" s="33"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2103,7 +2113,9 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="12" customHeight="1">
-      <c r="A74" s="13"/>
+      <c r="A74" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="B74" s="14"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -2117,7 +2129,9 @@
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="12" customHeight="1">
-      <c r="A75" s="13"/>
+      <c r="A75" s="51" t="s">
+        <v>55</v>
+      </c>
       <c r="B75" s="14"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -2131,10 +2145,10 @@
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="12" customHeight="1">
-      <c r="A76" s="13"/>
-      <c r="B76" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="A76" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="14"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2146,11 +2160,9 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A77" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="32"/>
+    <row r="77" spans="1:12" ht="12" customHeight="1">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2164,7 +2176,9 @@
     </row>
     <row r="78" spans="1:12" ht="12" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
+      <c r="B78" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2176,14 +2190,11 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" ht="12" customHeight="1">
-      <c r="A79" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
-        <v>X</v>
-      </c>
+    <row r="79" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A79" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="32"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2196,12 +2207,10 @@
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="12" customHeight="1">
-      <c r="A80" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>4</v>
-      </c>
+      <c r="A80" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="14"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -2214,13 +2223,10 @@
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" ht="12" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
-        <v>X</v>
-      </c>
+      <c r="A81" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="12"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -2233,10 +2239,10 @@
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" ht="12" customHeight="1">
-      <c r="A82" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="14"/>
+      <c r="A82" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="33"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -2249,12 +2255,10 @@
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" ht="12" customHeight="1">
-      <c r="A83" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="A83" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="12"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -2266,11 +2270,9 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A84" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="32"/>
+    <row r="84" spans="1:12" ht="12" customHeight="1">
+      <c r="A84" s="25"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2283,12 +2285,9 @@
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" ht="12" customHeight="1">
-      <c r="A85" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
+      <c r="A85" s="25"/>
+      <c r="B85" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -2301,13 +2300,11 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" ht="12" customHeight="1">
-      <c r="A86" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>4</v>
-      </c>
+    <row r="86" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A86" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="32"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -2320,8 +2317,10 @@
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12" ht="12" customHeight="1">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="12"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -2334,8 +2333,10 @@
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12" ht="12" customHeight="1">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
+      <c r="A88" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="33"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -2363,9 +2364,7 @@
     </row>
     <row r="90" spans="1:12" ht="12" customHeight="1">
       <c r="A90" s="13"/>
-      <c r="B90" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="B90" s="14"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -2377,11 +2376,9 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A91" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" s="32"/>
+    <row r="91" spans="1:12" ht="12" customHeight="1">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2394,12 +2391,9 @@
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:12" ht="12" customHeight="1">
-      <c r="A92" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
+      <c r="A92" s="13"/>
+      <c r="B92" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -2412,9 +2406,11 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" ht="12" customHeight="1">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
+    <row r="93" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A93" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="32"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -2427,8 +2423,10 @@
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="1:12" ht="12" customHeight="1">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
+      <c r="A94" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="12"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -2441,7 +2439,9 @@
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" ht="12" customHeight="1">
-      <c r="A95" s="13"/>
+      <c r="A95" s="53" t="s">
+        <v>57</v>
+      </c>
       <c r="B95" s="14"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
@@ -2455,7 +2455,9 @@
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:12" ht="12" customHeight="1">
-      <c r="A96" s="13"/>
+      <c r="A96" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="B96" s="14"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
@@ -2469,10 +2471,10 @@
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12" ht="12" customHeight="1">
-      <c r="A97" s="13"/>
-      <c r="B97" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="A97" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="14"/>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -2484,11 +2486,9 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A98" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="32"/>
+    <row r="98" spans="1:12" ht="12" customHeight="1">
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -2501,12 +2501,9 @@
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="1:12" ht="12" customHeight="1">
-      <c r="A99" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B99" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
+      <c r="A99" s="13"/>
+      <c r="B99" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
@@ -2519,9 +2516,11 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" ht="12" customHeight="1">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
+    <row r="100" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A100" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="32"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2534,8 +2533,10 @@
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" ht="12" customHeight="1">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="12"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -2548,7 +2549,9 @@
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="1:12" ht="12" customHeight="1">
-      <c r="A102" s="13"/>
+      <c r="A102" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="B102" s="14"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
@@ -2562,7 +2565,9 @@
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12" ht="12" customHeight="1">
-      <c r="A103" s="13"/>
+      <c r="A103" s="53" t="s">
+        <v>57</v>
+      </c>
       <c r="B103" s="14"/>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
@@ -2576,10 +2581,10 @@
       <c r="L103" s="5"/>
     </row>
     <row r="104" spans="1:12" ht="12" customHeight="1">
-      <c r="A104" s="13"/>
-      <c r="B104" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="A104" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="14"/>
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -2591,11 +2596,9 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A105" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="32"/>
+    <row r="105" spans="1:12" ht="12" customHeight="1">
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2608,12 +2611,9 @@
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="1:12" ht="12" customHeight="1">
-      <c r="A106" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1THUTgGTpLkevZBvox9m23qbMR6xx0M2RYgOFyFsWrmg","X")</f>
-        <v>X</v>
+      <c r="A106" s="13"/>
+      <c r="B106" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
@@ -2626,13 +2626,11 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="1:12" ht="12" customHeight="1">
-      <c r="A107" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>4</v>
-      </c>
+    <row r="107" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A107" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="32"/>
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -2645,8 +2643,10 @@
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12" ht="12" customHeight="1">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
+      <c r="A108" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" s="12"/>
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2659,8 +2659,10 @@
       <c r="L108" s="5"/>
     </row>
     <row r="109" spans="1:12" ht="12" customHeight="1">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
+      <c r="A109" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="33"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2688,9 +2690,7 @@
     </row>
     <row r="111" spans="1:12" ht="12" customHeight="1">
       <c r="A111" s="13"/>
-      <c r="B111" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="B111" s="14"/>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -2702,11 +2702,9 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12" ht="69.75" customHeight="1">
-      <c r="A112" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B112" s="32"/>
+    <row r="112" spans="1:12" ht="12" customHeight="1">
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2719,12 +2717,9 @@
       <c r="L112" s="5"/>
     </row>
     <row r="113" spans="1:12" ht="12" customHeight="1">
-      <c r="A113" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B113" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1aowZhWOqDG8Q1yqqq73Jdruv1T-jYHyomLoAAM9F9lc","X")</f>
-        <v>X</v>
+      <c r="A113" s="13"/>
+      <c r="B113" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
@@ -2737,13 +2732,11 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12" ht="12" customHeight="1">
-      <c r="A114" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>4</v>
-      </c>
+    <row r="114" spans="1:12" ht="69.75" customHeight="1">
+      <c r="A114" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="32"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -2756,13 +2749,10 @@
       <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:12" ht="12" customHeight="1">
-      <c r="A115" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B115" s="12" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
-        <v>X</v>
-      </c>
+      <c r="A115" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="12"/>
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -2775,10 +2765,10 @@
       <c r="L115" s="5"/>
     </row>
     <row r="116" spans="1:12" ht="12" customHeight="1">
-      <c r="A116" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="14"/>
+      <c r="A116" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="33"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -2791,14 +2781,14 @@
       <c r="L116" s="5"/>
     </row>
     <row r="117" spans="1:12" ht="12" customHeight="1">
-      <c r="A117" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
+      <c r="A117" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -2807,10 +2797,10 @@
       <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:12" ht="12" customHeight="1">
-      <c r="A118" s="13"/>
-      <c r="B118" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="A118" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="14"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -2822,15 +2812,15 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A119" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="32"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+    <row r="119" spans="1:12" ht="12" customHeight="1">
+      <c r="A119" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -2839,8 +2829,10 @@
       <c r="L119" s="5"/>
     </row>
     <row r="120" spans="1:12" ht="12" customHeight="1">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -2852,13 +2844,11 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:12" ht="12" customHeight="1">
-      <c r="A121" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>4</v>
-      </c>
+    <row r="121" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A121" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="32"/>
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -2871,15 +2861,12 @@
       <c r="L121" s="5"/>
     </row>
     <row r="122" spans="1:12" ht="12" customHeight="1">
-      <c r="A122" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="12" t="str">
-        <f>HYPERLINK("http://drive.google.com/open?id=1Nm2ajXFwKosxVxF8Vue-xKuwwz0hcHecn0tp6C3NM5M","X")</f>
-        <v>X</v>
-      </c>
+      <c r="A122" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" s="12"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -2890,8 +2877,10 @@
       <c r="L122" s="5"/>
     </row>
     <row r="123" spans="1:12" ht="12" customHeight="1">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
+      <c r="A123" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" s="33"/>
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -2904,10 +2893,12 @@
       <c r="L123" s="5"/>
     </row>
     <row r="124" spans="1:12" ht="12" customHeight="1">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
+      <c r="A124" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="12"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="4"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -2919,9 +2910,7 @@
     </row>
     <row r="125" spans="1:12" ht="12" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="B125" s="14"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -2933,15 +2922,13 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A126" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B126" s="32"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
+    <row r="126" spans="1:12" ht="12" customHeight="1">
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -2950,12 +2937,9 @@
       <c r="L126" s="5"/>
     </row>
     <row r="127" spans="1:12" ht="12" customHeight="1">
-      <c r="A127" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B127" s="12" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=187cU6CvwlkOR9E_KDNRS8S7Yk0Hi4lS9I5KT3xnXwlE","X")</f>
-        <v>X</v>
+      <c r="A127" s="13"/>
+      <c r="B127" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
@@ -2968,17 +2952,15 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" spans="1:12" ht="12" customHeight="1">
-      <c r="A128" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
+    <row r="128" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A128" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="32"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -2987,12 +2969,10 @@
       <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12" ht="12" customHeight="1">
-      <c r="A129" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>4</v>
-      </c>
+      <c r="A129" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="12"/>
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3005,8 +2985,10 @@
       <c r="L129" s="5"/>
     </row>
     <row r="130" spans="1:12" ht="12" customHeight="1">
-      <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="33"/>
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3019,8 +3001,10 @@
       <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" ht="12" customHeight="1">
-      <c r="A131" s="13"/>
-      <c r="B131" s="14"/>
+      <c r="A131" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="33"/>
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3033,10 +3017,10 @@
       <c r="L131" s="5"/>
     </row>
     <row r="132" spans="1:12" ht="12" customHeight="1">
-      <c r="A132" s="13"/>
-      <c r="B132" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="A132" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" s="14"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3048,20 +3032,50 @@
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" spans="1:12" ht="36.75" customHeight="1"/>
-    <row r="134" spans="1:12" ht="12" customHeight="1"/>
-    <row r="135" spans="1:12" ht="12" customHeight="1"/>
+    <row r="133" spans="1:12" ht="12" customHeight="1">
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="1:12" ht="12" customHeight="1">
+      <c r="A134" s="13"/>
+      <c r="B134" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="1:12" ht="36.75" customHeight="1"/>
     <row r="136" spans="1:12" ht="12" customHeight="1"/>
     <row r="137" spans="1:12" ht="12" customHeight="1"/>
     <row r="138" spans="1:12" ht="12" customHeight="1"/>
     <row r="139" spans="1:12" ht="12" customHeight="1"/>
-    <row r="140" spans="1:12" ht="60.75" customHeight="1"/>
+    <row r="140" spans="1:12" ht="12" customHeight="1"/>
     <row r="141" spans="1:12" ht="12" customHeight="1"/>
-    <row r="142" spans="1:12" ht="12" customHeight="1"/>
+    <row r="142" spans="1:12" ht="60.75" customHeight="1"/>
     <row r="143" spans="1:12" ht="12" customHeight="1"/>
     <row r="144" spans="1:12" ht="12" customHeight="1"/>
     <row r="145" ht="12" customHeight="1"/>
     <row r="146" ht="12" customHeight="1"/>
+    <row r="147" ht="12" customHeight="1"/>
+    <row r="148" ht="12" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="Gerência de RequisitosGPR-PPR-PLANO_DE_PROJETO"/>
@@ -3072,28 +3086,23 @@
     <hyperlink ref="A71" r:id="rId6"/>
     <hyperlink ref="A72" r:id="rId7"/>
     <hyperlink ref="A73" r:id="rId8"/>
-    <hyperlink ref="A79" r:id="rId9"/>
-    <hyperlink ref="A80" r:id="rId10"/>
-    <hyperlink ref="A81" r:id="rId11"/>
-    <hyperlink ref="A85" r:id="rId12"/>
-    <hyperlink ref="A86" r:id="rId13"/>
-    <hyperlink ref="A92" r:id="rId14"/>
-    <hyperlink ref="A99" r:id="rId15"/>
-    <hyperlink ref="A106" r:id="rId16"/>
-    <hyperlink ref="A107" r:id="rId17" display="GPR-RDP-RECURSOS_DE_PROJETO"/>
-    <hyperlink ref="A113" r:id="rId18" display="GRE-PGR-PROCESSO_DE_GERENCIA_DE_REQUISITOS"/>
-    <hyperlink ref="A114" r:id="rId19" display="GCO-PGC-PLANO_DE_GERENCIA_DE_CONFIGURACAO"/>
-    <hyperlink ref="A115" r:id="rId20"/>
-    <hyperlink ref="A116" r:id="rId21"/>
-    <hyperlink ref="A121" r:id="rId22"/>
-    <hyperlink ref="A122" r:id="rId23"/>
-    <hyperlink ref="A127" r:id="rId24"/>
-    <hyperlink ref="A128" r:id="rId25"/>
-    <hyperlink ref="A129" r:id="rId26"/>
-    <hyperlink ref="A20" r:id="rId27" display="GRE-MATRIZ_DE_RASTREABILIDADE Todo Documento"/>
-    <hyperlink ref="A14" r:id="rId28" display="GRE-CAR-CHECKLIST_ACOMPANHAMENTO_DE_REQUISITOS Todo Documento"/>
+    <hyperlink ref="A81" r:id="rId9"/>
+    <hyperlink ref="A82" r:id="rId10"/>
+    <hyperlink ref="A83" r:id="rId11"/>
+    <hyperlink ref="A87" r:id="rId12"/>
+    <hyperlink ref="A88" r:id="rId13"/>
+    <hyperlink ref="A94" r:id="rId14"/>
+    <hyperlink ref="A101" r:id="rId15"/>
+    <hyperlink ref="A109" r:id="rId16" display="GPR-RDP-RECURSOS_DE_PROJETO"/>
+    <hyperlink ref="A115" r:id="rId17" display="GRE-PGR-PROCESSO_DE_GERENCIA_DE_REQUISITOS"/>
+    <hyperlink ref="A117" r:id="rId18"/>
+    <hyperlink ref="A129" r:id="rId19"/>
+    <hyperlink ref="A130" r:id="rId20"/>
+    <hyperlink ref="A131" r:id="rId21"/>
+    <hyperlink ref="A20" r:id="rId22" display="GRE-MATRIZ_DE_RASTREABILIDADE Todo Documento"/>
+    <hyperlink ref="A14" r:id="rId23" display="GRE-CAR-CHECKLIST_ACOMPANHAMENTO_DE_REQUISITOS Todo Documento"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
+++ b/Entregavel_02/Sprint_03/PAR-PAR-PLANILHA_DE_AVALIACAO_GRE.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="GRE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
   <si>
     <t>PREENCHIDO PELA EMPRESA</t>
   </si>
@@ -217,9 +222,6 @@
     <t>Recursos de Projeto</t>
   </si>
   <si>
-    <t>Aprovcao dos Requisitos</t>
-  </si>
-  <si>
     <t>Curriculum</t>
   </si>
   <si>
@@ -244,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -366,6 +368,14 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -429,7 +439,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -441,8 +451,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,9 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -530,9 +538,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -557,18 +562,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -599,8 +598,27 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Hyperlink 3" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,6 +698,14 @@
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -726,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,9 +784,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,6 +819,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -967,14 +995,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B133" sqref="B1:B133"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="106.42578125" style="1"/>
     <col min="2" max="2" width="13.42578125" style="1"/>
@@ -982,11 +1010,11 @@
     <col min="13" max="1025" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1">
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -998,11 +1026,11 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1014,11 +1042,11 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="51" customHeight="1">
+    <row r="3" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
@@ -1032,11 +1060,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1048,11 +1076,11 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1">
+    <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1064,12 +1092,12 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1">
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>65</v>
+      <c r="B6" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -1082,12 +1110,12 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1">
+    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>65</v>
+      <c r="B7" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -1100,12 +1128,12 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1">
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>65</v>
+      <c r="B8" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -1118,12 +1146,12 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1">
+    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>65</v>
+      <c r="B9" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -1136,9 +1164,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1">
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1150,9 +1178,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1">
+    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3"/>
@@ -1166,11 +1194,11 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="82.5" customHeight="1">
+    <row r="12" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1182,12 +1210,12 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1">
+    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>65</v>
+      <c r="B13" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -1200,12 +1228,12 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1">
+    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>65</v>
+      <c r="B14" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1218,12 +1246,12 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="12" customHeight="1">
+    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>65</v>
+      <c r="B15" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -1236,12 +1264,12 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1">
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>65</v>
+      <c r="B16" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
@@ -1254,9 +1282,9 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="12" customHeight="1">
+    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1268,8 +1296,8 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="12" customHeight="1">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="3"/>
@@ -1283,11 +1311,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1">
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1299,12 +1327,12 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1">
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>65</v>
+      <c r="B20" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -1317,12 +1345,12 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1">
+    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>65</v>
+      <c r="B21" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -1335,9 +1363,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1">
+    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="45"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1349,9 +1377,9 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1">
+    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1363,9 +1391,9 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1">
+    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1377,9 +1405,9 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1">
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3"/>
@@ -1393,11 +1421,11 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="60" customHeight="1">
+    <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1409,12 +1437,12 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1">
+    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>65</v>
+      <c r="B27" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
@@ -1427,12 +1455,12 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1">
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>65</v>
+      <c r="B28" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -1445,12 +1473,12 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1">
+    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>65</v>
+      <c r="B29" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -1463,12 +1491,12 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1">
+    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>65</v>
+      <c r="B30" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -1481,9 +1509,9 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1">
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
-      <c r="B31" s="45"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1495,9 +1523,9 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="12" customHeight="1">
+    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="3"/>
@@ -1511,11 +1539,11 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="48" customHeight="1">
+    <row r="33" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1527,12 +1555,12 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="12" customHeight="1">
+    <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>65</v>
+      <c r="B34" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
@@ -1545,12 +1573,12 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="12" customHeight="1">
+    <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>65</v>
+      <c r="B35" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
@@ -1563,12 +1591,12 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="12" customHeight="1">
+    <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>65</v>
+      <c r="B36" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -1581,9 +1609,9 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="12" customHeight="1">
+    <row r="37" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
-      <c r="B37" s="45"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1595,9 +1623,9 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="12" customHeight="1">
+    <row r="38" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1609,9 +1637,9 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="12" customHeight="1">
+    <row r="39" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="3"/>
@@ -1625,9 +1653,9 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
-      <c r="B40" s="53"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1639,11 +1667,11 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75">
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="54"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1655,11 +1683,11 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1671,11 +1699,11 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="12" customHeight="1">
+    <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1687,11 +1715,11 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="51" customHeight="1">
+    <row r="44" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1703,12 +1731,12 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="12" customHeight="1">
+    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="57" t="s">
-        <v>65</v>
+      <c r="B45" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -1721,12 +1749,12 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="12" customHeight="1">
+    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="57" t="s">
-        <v>65</v>
+      <c r="B46" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -1739,13 +1767,13 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="12" customHeight="1">
+    <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1YxEe7ln7G2YnhWW41DRU9BqNmW2SU39ESS2lCRx7ZmI","Relatório de Acompanhamento do Projeto")</f>
         <v>Relatório de Acompanhamento do Projeto</v>
       </c>
-      <c r="B47" s="57" t="s">
-        <v>65</v>
+      <c r="B47" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -1758,12 +1786,12 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="12" customHeight="1">
+    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="57" t="s">
-        <v>65</v>
+      <c r="B48" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
@@ -1776,12 +1804,12 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="12" customHeight="1">
+    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="57" t="s">
-        <v>65</v>
+      <c r="B49" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
@@ -1794,12 +1822,12 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="12" customHeight="1">
+    <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>65</v>
+      <c r="B50" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
@@ -1812,7 +1840,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="12" customHeight="1">
+    <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="20"/>
       <c r="C51" s="3"/>
@@ -1826,9 +1854,9 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="12" customHeight="1">
+    <row r="52" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="3"/>
@@ -1842,11 +1870,11 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1858,11 +1886,11 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="60" customHeight="1">
+    <row r="54" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1874,12 +1902,12 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="12" customHeight="1">
+    <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="57" t="s">
-        <v>65</v>
+      <c r="B55" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -1892,12 +1920,12 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="12" customHeight="1">
+    <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>65</v>
+      <c r="B56" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
@@ -1910,12 +1938,12 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="12" customHeight="1">
+    <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>65</v>
+      <c r="B57" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
@@ -1928,7 +1956,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="12" customHeight="1">
+    <row r="58" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="20"/>
       <c r="C58" s="3"/>
@@ -1942,7 +1970,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="12" customHeight="1">
+    <row r="59" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="20"/>
       <c r="C59" s="3"/>
@@ -1956,9 +1984,9 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="12" customHeight="1">
+    <row r="60" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="3"/>
@@ -1972,11 +2000,11 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="24.75" customHeight="1">
+    <row r="61" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="60"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1988,12 +2016,12 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="12" customHeight="1">
+    <row r="62" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="57" t="s">
-        <v>65</v>
+      <c r="B62" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -2006,12 +2034,12 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="12" customHeight="1">
+    <row r="63" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>65</v>
+      <c r="B63" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -2024,7 +2052,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="12" customHeight="1">
+    <row r="64" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="20"/>
       <c r="C64" s="3"/>
@@ -2038,7 +2066,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="12" customHeight="1">
+    <row r="65" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="20"/>
       <c r="C65" s="3"/>
@@ -2052,7 +2080,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="12" customHeight="1">
+    <row r="66" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="20"/>
       <c r="C66" s="3"/>
@@ -2066,9 +2094,9 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="12" customHeight="1">
+    <row r="67" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="3"/>
@@ -2082,11 +2110,11 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="36.75" customHeight="1">
+    <row r="68" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="61"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2098,12 +2126,12 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="12" customHeight="1">
+    <row r="69" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>65</v>
+      <c r="B69" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -2116,12 +2144,12 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="12" customHeight="1">
+    <row r="70" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="57" t="s">
-        <v>65</v>
+      <c r="B70" s="59" t="s">
+        <v>64</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -2134,12 +2162,12 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="12" customHeight="1">
+    <row r="71" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>65</v>
+      <c r="B71" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -2152,12 +2180,12 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="12" customHeight="1">
+    <row r="72" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="57" t="s">
-        <v>65</v>
+      <c r="B72" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
@@ -2170,12 +2198,12 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="12" customHeight="1">
+    <row r="73" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>65</v>
+      <c r="B73" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="4"/>
@@ -2188,12 +2216,12 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="12" customHeight="1">
+    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>65</v>
+      <c r="B74" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="4"/>
@@ -2206,12 +2234,12 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="12" customHeight="1">
-      <c r="A75" s="29" t="s">
+    <row r="75" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>65</v>
+      <c r="B75" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="4"/>
@@ -2224,12 +2252,12 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="12" customHeight="1">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>65</v>
+      <c r="B76" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -2242,7 +2270,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="12" customHeight="1">
+    <row r="77" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="20"/>
       <c r="C77" s="3"/>
@@ -2256,9 +2284,9 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="12" customHeight="1">
+    <row r="78" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="3"/>
@@ -2272,11 +2300,11 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="48.75" customHeight="1">
+    <row r="79" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="61"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -2288,12 +2316,12 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="12" customHeight="1">
+    <row r="80" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>65</v>
+      <c r="B80" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -2306,12 +2334,12 @@
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="12" customHeight="1">
+    <row r="81" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="57" t="s">
-        <v>65</v>
+      <c r="B81" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
@@ -2324,12 +2352,12 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="12" customHeight="1">
+    <row r="82" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>65</v>
+      <c r="B82" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
@@ -2342,12 +2370,12 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="12" customHeight="1">
+    <row r="83" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="57" t="s">
-        <v>65</v>
+      <c r="B83" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="4"/>
@@ -2360,7 +2388,7 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="12" customHeight="1">
+    <row r="84" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
       <c r="B84" s="20"/>
       <c r="C84" s="3"/>
@@ -2374,9 +2402,9 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="12" customHeight="1">
+    <row r="85" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16"/>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="3"/>
@@ -2390,11 +2418,11 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="48.75" customHeight="1">
+    <row r="86" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="61"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -2406,12 +2434,12 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="12" customHeight="1">
+    <row r="87" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="57" t="s">
-        <v>65</v>
+      <c r="B87" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -2424,12 +2452,12 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="12" customHeight="1">
+    <row r="88" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="20" t="s">
-        <v>65</v>
+      <c r="B88" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
@@ -2442,7 +2470,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="12" customHeight="1">
+    <row r="89" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="20"/>
       <c r="C89" s="3"/>
@@ -2456,7 +2484,7 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="12" customHeight="1">
+    <row r="90" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
@@ -2470,7 +2498,7 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="12" customHeight="1">
+    <row r="91" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3"/>
@@ -2484,9 +2512,9 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="12" customHeight="1">
+    <row r="92" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="3"/>
@@ -2500,11 +2528,11 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="36.75" customHeight="1">
+    <row r="93" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="61"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -2516,12 +2544,12 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="12" customHeight="1">
+    <row r="94" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="57" t="s">
-        <v>65</v>
+      <c r="B94" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -2534,12 +2562,12 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="12" customHeight="1">
-      <c r="A95" s="31" t="s">
+    <row r="95" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="20" t="s">
-        <v>65</v>
+      <c r="B95" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -2552,12 +2580,12 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="12" customHeight="1">
+    <row r="96" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B96" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
@@ -2570,12 +2598,12 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" ht="12" customHeight="1">
+    <row r="97" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>65</v>
+      <c r="B97" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="4"/>
@@ -2588,7 +2616,7 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" ht="12" customHeight="1">
+    <row r="98" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="20"/>
       <c r="C98" s="3"/>
@@ -2602,9 +2630,9 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" ht="12" customHeight="1">
+    <row r="99" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="3"/>
@@ -2618,11 +2646,11 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="48.75" customHeight="1">
+    <row r="100" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="61"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -2634,12 +2662,12 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" ht="12" customHeight="1">
+    <row r="101" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B101" s="57" t="s">
-        <v>65</v>
+      <c r="B101" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -2652,12 +2680,12 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" ht="12" customHeight="1">
+    <row r="102" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -2670,12 +2698,12 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" ht="12" customHeight="1">
-      <c r="A103" s="31" t="s">
+    <row r="103" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>65</v>
+      <c r="B103" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -2688,12 +2716,12 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" ht="12" customHeight="1">
+    <row r="104" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>65</v>
+      <c r="B104" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
@@ -2706,7 +2734,7 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" ht="12" customHeight="1">
+    <row r="105" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="20"/>
       <c r="C105" s="3"/>
@@ -2720,9 +2748,9 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="12" customHeight="1">
+    <row r="106" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="3"/>
@@ -2736,11 +2764,11 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="48.75" customHeight="1">
+    <row r="107" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="61"/>
+      <c r="B107" s="57"/>
       <c r="C107" s="3"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -2752,12 +2780,12 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="12" customHeight="1">
-      <c r="A108" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B108" s="57" t="s">
-        <v>65</v>
+    <row r="108" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
@@ -2770,12 +2798,12 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" ht="12" customHeight="1">
+    <row r="109" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="20" t="s">
-        <v>65</v>
+      <c r="B109" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -2788,7 +2816,7 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" ht="12" customHeight="1">
+    <row r="110" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
@@ -2802,7 +2830,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" ht="12" customHeight="1">
+    <row r="111" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="20"/>
       <c r="C111" s="3"/>
@@ -2816,7 +2844,7 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" ht="12" customHeight="1">
+    <row r="112" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="20"/>
       <c r="C112" s="3"/>
@@ -2830,9 +2858,9 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" ht="12" customHeight="1">
+    <row r="113" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="3"/>
@@ -2846,11 +2874,11 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" ht="69.75" customHeight="1">
+    <row r="114" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B114" s="61"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="3"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -2862,12 +2890,12 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" ht="12" customHeight="1">
+    <row r="115" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B115" s="57" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B115" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
@@ -2880,12 +2908,12 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" ht="12" customHeight="1">
-      <c r="A116" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>65</v>
+    <row r="116" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
@@ -2898,12 +2926,12 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" ht="12" customHeight="1">
+    <row r="117" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B117" s="57" t="s">
-        <v>65</v>
+      <c r="B117" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -2916,12 +2944,12 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" ht="12" customHeight="1">
-      <c r="A118" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>65</v>
+    <row r="118" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -2934,11 +2962,13 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="12" customHeight="1">
-      <c r="A119" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" s="20"/>
+    <row r="119" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
@@ -2950,9 +2980,9 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="12" customHeight="1">
+    <row r="120" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
-      <c r="B120" s="52" t="s">
+      <c r="B120" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="3"/>
@@ -2966,11 +2996,11 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="48.75" customHeight="1">
+    <row r="121" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B121" s="61"/>
+      <c r="B121" s="57"/>
       <c r="C121" s="3"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -2982,12 +3012,12 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="12" customHeight="1">
-      <c r="A122" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B122" s="57" t="s">
-        <v>65</v>
+    <row r="122" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B122" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
@@ -3000,12 +3030,12 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="12" customHeight="1">
-      <c r="A123" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>65</v>
+    <row r="123" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" s="63" t="s">
+        <v>64</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
@@ -3018,12 +3048,12 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="12" customHeight="1">
+    <row r="124" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="57" t="s">
-        <v>65</v>
+      <c r="B124" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3036,11 +3066,9 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" ht="12" customHeight="1">
+    <row r="125" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
-      <c r="B125" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="B125" s="20"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -3052,7 +3080,7 @@
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="1:12" ht="12" customHeight="1">
+    <row r="126" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="20"/>
       <c r="C126" s="3"/>
@@ -3066,9 +3094,9 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" ht="12" customHeight="1">
+    <row r="127" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
-      <c r="B127" s="52" t="s">
+      <c r="B127" s="48" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="3"/>
@@ -3082,11 +3110,11 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" ht="48.75" customHeight="1">
+    <row r="128" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B128" s="61"/>
+      <c r="B128" s="57"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
@@ -3098,12 +3126,12 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="12" customHeight="1">
+    <row r="129" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B129" s="57" t="s">
-        <v>65</v>
+      <c r="B129" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="4"/>
@@ -3116,12 +3144,12 @@
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" ht="12" customHeight="1">
+    <row r="130" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>65</v>
+      <c r="B130" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="4"/>
@@ -3134,12 +3162,12 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" ht="12" customHeight="1">
+    <row r="131" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B131" s="20" t="s">
-        <v>65</v>
+      <c r="B131" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
@@ -3152,12 +3180,12 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" ht="12" customHeight="1">
-      <c r="A132" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>65</v>
+    <row r="132" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
@@ -3170,7 +3198,7 @@
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="12" customHeight="1">
+    <row r="133" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="20"/>
       <c r="C133" s="3"/>
@@ -3184,7 +3212,7 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" ht="12" customHeight="1">
+    <row r="134" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="11" t="s">
         <v>4</v>
@@ -3200,20 +3228,20 @@
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" ht="36.75" customHeight="1"/>
-    <row r="136" spans="1:12" ht="12" customHeight="1"/>
-    <row r="137" spans="1:12" ht="12" customHeight="1"/>
-    <row r="138" spans="1:12" ht="12" customHeight="1"/>
-    <row r="139" spans="1:12" ht="12" customHeight="1"/>
-    <row r="140" spans="1:12" ht="12" customHeight="1"/>
-    <row r="141" spans="1:12" ht="12" customHeight="1"/>
-    <row r="142" spans="1:12" ht="60.75" customHeight="1"/>
-    <row r="143" spans="1:12" ht="12" customHeight="1"/>
-    <row r="144" spans="1:12" ht="12" customHeight="1"/>
-    <row r="145" ht="12" customHeight="1"/>
-    <row r="146" ht="12" customHeight="1"/>
-    <row r="147" ht="12" customHeight="1"/>
-    <row r="148" ht="12" customHeight="1"/>
+    <row r="135" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="Gerência de RequisitosGPR-PPR-PLANO_DE_PROJETO"/>
@@ -3239,8 +3267,71 @@
     <hyperlink ref="A131" r:id="rId21"/>
     <hyperlink ref="A20" r:id="rId22" display="GRE-MATRIZ_DE_RASTREABILIDADE Todo Documento"/>
     <hyperlink ref="A14" r:id="rId23" display="GRE-CAR-CHECKLIST_ACOMPANHAMENTO_DE_REQUISITOS Todo Documento"/>
+    <hyperlink ref="B6" r:id="rId24"/>
+    <hyperlink ref="B7" r:id="rId25"/>
+    <hyperlink ref="B8" r:id="rId26"/>
+    <hyperlink ref="B9" r:id="rId27"/>
+    <hyperlink ref="B13" r:id="rId28"/>
+    <hyperlink ref="B14" r:id="rId29"/>
+    <hyperlink ref="B15" r:id="rId30"/>
+    <hyperlink ref="B16" r:id="rId31"/>
+    <hyperlink ref="B20" r:id="rId32"/>
+    <hyperlink ref="B21" r:id="rId33"/>
+    <hyperlink ref="B29" r:id="rId34"/>
+    <hyperlink ref="B30" r:id="rId35"/>
+    <hyperlink ref="B27" r:id="rId36"/>
+    <hyperlink ref="B28" r:id="rId37"/>
+    <hyperlink ref="B34" r:id="rId38"/>
+    <hyperlink ref="B35" r:id="rId39"/>
+    <hyperlink ref="B36" r:id="rId40"/>
+    <hyperlink ref="B46" r:id="rId41"/>
+    <hyperlink ref="B47" r:id="rId42"/>
+    <hyperlink ref="B48" r:id="rId43"/>
+    <hyperlink ref="B49" r:id="rId44"/>
+    <hyperlink ref="B50" r:id="rId45"/>
+    <hyperlink ref="B55" r:id="rId46"/>
+    <hyperlink ref="B56" r:id="rId47"/>
+    <hyperlink ref="B57" r:id="rId48"/>
+    <hyperlink ref="B62" r:id="rId49"/>
+    <hyperlink ref="B63" r:id="rId50"/>
+    <hyperlink ref="B69" r:id="rId51"/>
+    <hyperlink ref="B70" r:id="rId52"/>
+    <hyperlink ref="B71" r:id="rId53"/>
+    <hyperlink ref="B72" r:id="rId54"/>
+    <hyperlink ref="B73" r:id="rId55"/>
+    <hyperlink ref="B74" r:id="rId56"/>
+    <hyperlink ref="B75" r:id="rId57"/>
+    <hyperlink ref="B76" r:id="rId58"/>
+    <hyperlink ref="B80" r:id="rId59"/>
+    <hyperlink ref="B81" r:id="rId60"/>
+    <hyperlink ref="B82" r:id="rId61"/>
+    <hyperlink ref="B83" r:id="rId62"/>
+    <hyperlink ref="B87" r:id="rId63"/>
+    <hyperlink ref="B88" r:id="rId64"/>
+    <hyperlink ref="B94" r:id="rId65"/>
+    <hyperlink ref="B95" r:id="rId66"/>
+    <hyperlink ref="B96" r:id="rId67"/>
+    <hyperlink ref="B97" r:id="rId68"/>
+    <hyperlink ref="B101" r:id="rId69"/>
+    <hyperlink ref="B102" r:id="rId70"/>
+    <hyperlink ref="B103" r:id="rId71"/>
+    <hyperlink ref="B104" r:id="rId72"/>
+    <hyperlink ref="B108" r:id="rId73"/>
+    <hyperlink ref="B109" r:id="rId74"/>
+    <hyperlink ref="B115" r:id="rId75"/>
+    <hyperlink ref="B116" r:id="rId76"/>
+    <hyperlink ref="B117" r:id="rId77"/>
+    <hyperlink ref="B119" r:id="rId78"/>
+    <hyperlink ref="B118" r:id="rId79"/>
+    <hyperlink ref="B123" r:id="rId80"/>
+    <hyperlink ref="B124" r:id="rId81"/>
+    <hyperlink ref="B129" r:id="rId82"/>
+    <hyperlink ref="B130" r:id="rId83"/>
+    <hyperlink ref="B131" r:id="rId84"/>
+    <hyperlink ref="B132" r:id="rId85"/>
+    <hyperlink ref="B122" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>